--- a/Tema_01/reposicion.xlsx
+++ b/Tema_01/reposicion.xlsx
@@ -477,13 +477,13 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E6">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
